--- a/front-end/JUDICIAL.xlsx
+++ b/front-end/JUDICIAL.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\AppsTesis\v5\app\front-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>IDENTIFICACION</t>
   </si>
@@ -74,45 +74,18 @@
     <t>ID102</t>
   </si>
   <si>
-    <t>ID103</t>
-  </si>
-  <si>
-    <t>ID104</t>
-  </si>
-  <si>
-    <t>ID105</t>
-  </si>
-  <si>
     <t>ANDRES</t>
   </si>
   <si>
     <t>CAMILO</t>
   </si>
   <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
     <t>ORTEGA</t>
   </si>
   <si>
     <t>RUIZ</t>
   </si>
   <si>
-    <t>VELEZ</t>
-  </si>
-  <si>
-    <t>AGREDO</t>
-  </si>
-  <si>
-    <t>RENGIFO</t>
-  </si>
-  <si>
     <t xml:space="preserve">NUMOFICIO </t>
   </si>
   <si>
@@ -131,43 +104,16 @@
     <t>ID202</t>
   </si>
   <si>
-    <t>ID203</t>
-  </si>
-  <si>
-    <t>ID204</t>
-  </si>
-  <si>
-    <t>ID205</t>
-  </si>
-  <si>
     <t>KEVIN</t>
   </si>
   <si>
     <t>YONY</t>
   </si>
   <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>MURILLO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>JESID</t>
   </si>
 </sst>
 </file>
@@ -315,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -328,7 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -621,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,34 +592,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -688,7 +633,7 @@
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -718,10 +663,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" s="11">
         <v>43243</v>
@@ -733,19 +678,19 @@
         <v>80000000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>14</v>
@@ -754,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O3" s="10">
         <v>35789987</v>
@@ -766,21 +711,21 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -789,118 +734,13 @@
         <v>13</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O4" s="10">
         <v>45789987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="10">
-        <v>55789987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="10">
-        <v>85789987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="3">
-        <v>15789987</v>
       </c>
     </row>
   </sheetData>
